--- a/app/private/building_modele_import_buildings_v1.xlsx
+++ b/app/private/building_modele_import_buildings_v1.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
-  <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr date1904="1" showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
@@ -504,6 +504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
